--- a/BCL2_and_MYC_rearrangement/Junction_assembling/Junctions.xlsx
+++ b/BCL2_and_MYC_rearrangement/Junction_assembling/Junctions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songdong/Dropbox/Dropbox/DLBCL/WatchDHL/BCL2_and_MYC_rearrangement/Junction_assembling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8DAB363-EB19-8949-B53B-50CDA38707F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8F9C481-891F-894F-806A-0C48DA0BFA7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" xr2:uid="{2CA9081D-29DF-2949-8FE1-35D6665CE8FB}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26560" xr2:uid="{2CA9081D-29DF-2949-8FE1-35D6665CE8FB}"/>
   </bookViews>
   <sheets>
     <sheet name="BCL2 (FL tumor)" sheetId="2" r:id="rId1"/>
@@ -35130,8 +35130,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B26536CB-715A-8F4E-BEF5-92815707B23C}">
   <dimension ref="A3:A169"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="S37" sqref="S37"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="204" zoomScaleNormal="204" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
